--- a/biology/Médecine/Muscle_pectiné/Muscle_pectiné.xlsx
+++ b/biology/Médecine/Muscle_pectiné/Muscle_pectiné.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_pectin%C3%A9</t>
+          <t>Muscle_pectiné</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle pectiné (Musculus pectineus) est un muscle du membre inférieur situé dans la partie supérieure de la loge fémorale médiale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_pectin%C3%A9</t>
+          <t>Muscle_pectiné</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle pectiné est un muscle aplati et quadrilatère qui relie le pubis au fémur.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_pectin%C3%A9</t>
+          <t>Muscle_pectiné</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle pectiné se fixe en deux plans affectant la forme d'un J couché.
 Le plan superficiel se fixe entre le tubercule pubien et l'éminence ilio-pectinée, le long du pecten du pubis.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_pectin%C3%A9</t>
+          <t>Muscle_pectiné</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle pectiné forme un corps musculaire quadrilatère se dirigeant en bas et en dehors vers le bord postérieur du fémur.
 Il fait partie du plancher du trigone fémoral .
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_pectin%C3%A9</t>
+          <t>Muscle_pectiné</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle pectiné s'insère en bas sur la ligne pectinéale du fémur formée par la trifurcation moyenne de la ligne âpre.
 </t>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muscle_pectin%C3%A9</t>
+          <t>Muscle_pectiné</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,7 +659,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle pectiné est innervé par le rameau du muscle pectiné du nerf fémoral ou par le nerf obturateur accessoire provenant des racines L2, L3 et L4 du plexus lombal.
 </t>
@@ -652,7 +674,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Muscle_pectin%C3%A9</t>
+          <t>Muscle_pectiné</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -670,7 +692,9 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La vascularisation du muscle pectiné est variable : elle peut provenir de l'artère circonflexe médiale ou de l'artère fémorale.
 </t>
@@ -683,7 +707,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Muscle_pectin%C3%A9</t>
+          <t>Muscle_pectiné</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -701,7 +725,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle pectiné est adducteur et fléchisseur de l'articulation coxale.
 Le rôle rotatoire est controversé, le muscle passant près de l'axe de rotation de la cuisse.
